--- a/TestSuite.xlsx
+++ b/TestSuite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -30,19 +30,10 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>ExecutionStatus</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>TC003</t>
   </si>
 </sst>
 </file>
@@ -396,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,9 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -420,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -428,23 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TestSuite.xlsx
+++ b/TestSuite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>TC002</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,6 +427,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
